--- a/CargueMasivoAfiliaciones/Data/Config.xlsx
+++ b/CargueMasivoAfiliaciones/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_Ascension\Documents\CargueMasivoAfiliaciones\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B914AA-B623-4077-A8C8-C7F34CC1959B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99062A-59FE-4A7B-891D-965B79BFA796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>Correo</t>
+  </si>
+  <si>
+    <t>C:\Users\RPA_Ascension\Documents\Proyectos\Acension\Formatos</t>
+  </si>
+  <si>
+    <t>RutaSociosNegocios</t>
   </si>
 </sst>
 </file>
@@ -793,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -970,191 +976,198 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
+      <c r="A19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" s="15" t="s">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2112,6 +2125,7 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CargueMasivoAfiliaciones/Data/Config.xlsx
+++ b/CargueMasivoAfiliaciones/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_Ascension\Documents\CargueMasivoAfiliaciones\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99062A-59FE-4A7B-891D-965B79BFA796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C87C75F-CD02-45B5-880C-E0483C5A6954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,7 +802,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/CargueMasivoAfiliaciones/Data/Config.xlsx
+++ b/CargueMasivoAfiliaciones/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_Ascension\Documents\CargueMasivoAfiliaciones\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C87C75F-CD02-45B5-880C-E0483C5A6954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2CE12-5444-4BCA-8E69-4A6936858026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -329,6 +329,12 @@
   </si>
   <si>
     <t>RutaSociosNegocios</t>
+  </si>
+  <si>
+    <t>Extension de correos</t>
+  </si>
+  <si>
+    <t>Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".com") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".co") or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".COM") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".CO") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".ES") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".es") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".GOV") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".gov")</t>
   </si>
 </sst>
 </file>
@@ -801,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1168,7 +1174,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>

--- a/CargueMasivoAfiliaciones/Data/Config.xlsx
+++ b/CargueMasivoAfiliaciones/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_Ascension\Documents\CargueMasivoAfiliaciones\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2CE12-5444-4BCA-8E69-4A6936858026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A832F144-FA9D-43BA-A540-DF67641F8394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".com") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".co") or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".COM") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".CO") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".ES") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".es") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".GOV") Or Fila("Correo electrónico/(Sólo se diligencia cuando el  codigo de contratante es 13)").ToString.Contains(".gov")</t>
+  </si>
+  <si>
+    <t>Descarga_SAP</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +399,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -428,32 +440,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -466,30 +458,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -805,25 +790,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.42578125" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -854,10 +839,10 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -865,18 +850,18 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -884,305 +869,315 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A28" s="11" t="s">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A29" s="11" t="s">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A31" s="11" t="s">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A32" s="11" t="s">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="11" t="s">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" s="11" t="s">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="11" t="s">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="11" t="s">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="11" t="s">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A41" s="11" t="s">
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2139,6 +2134,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CargueMasivoAfiliaciones/Data/Config.xlsx
+++ b/CargueMasivoAfiliaciones/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_Ascension\Documents\CargueMasivoAfiliaciones\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A832F144-FA9D-43BA-A540-DF67641F8394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE2813-2B7C-4339-8B2A-8EB18DC4C67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,9 +301,6 @@
     <t>Archivos planos</t>
   </si>
   <si>
-    <t>http://api.laascension.com/checkNameUser/CC/</t>
-  </si>
-  <si>
     <t>SAP_Data_Transfer</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>C:\Program Files (x86)\sap\Data Transfer Workbench\dtw.exe</t>
   </si>
   <si>
-    <t>2 PRUEBAS LA ASCENSION</t>
-  </si>
-  <si>
     <t>C:\Users\RPA_Ascension\Documents\Proyectos\Acension\Formatos\Validación_Informe.xlsx</t>
   </si>
   <si>
@@ -340,7 +334,13 @@
     <t>Descarga_SAP</t>
   </si>
   <si>
+    <t>1 LA ASCENSION PRODUCTIVA</t>
+  </si>
+  <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>http://201.244.105.218:6722/EyWtE39lvg/CC/</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -475,6 +475,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -792,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -967,10 +968,10 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
@@ -983,7 +984,7 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>38</v>
@@ -1007,18 +1008,18 @@
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
@@ -1031,10 +1032,10 @@
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
@@ -1055,10 +1056,10 @@
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
@@ -1137,8 +1138,8 @@
       <c r="A37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>91</v>
+      <c r="B37" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="C37" s="2"/>
     </row>
@@ -1172,10 +1173,10 @@
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
